--- a/docs/Manual Test - 3 Player Game + Chat.xlsx
+++ b/docs/Manual Test - 3 Player Game + Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19739d4a924ac107/Documents/University/Spring 2024/Fundamentals of Software Engineering/Project/cse3310_sp24_group_12/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{F102393F-86FB-4D1A-B05E-CD2E01AB113A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B43F3855-93B9-4FC7-B765-CD538B44CF8C}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{F102393F-86FB-4D1A-B05E-CD2E01AB113A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172746AF-7373-42F8-AD93-92F845BB9346}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E84A72F2-B4C3-BF4C-A5CC-83B084D2C238}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <t>Action</t>
   </si>
@@ -219,6 +219,27 @@
   </si>
   <si>
     <t xml:space="preserve">User Story: THREE PLAYER GAME WITH CHATTING BETWEEN PLAYERS:  Player 1 joins and is prompted to enter their nickname. They choose "Player1" as their nick and then hit submit. Player 2 then joins and then inputs "Player2" as their nick and then hits submit. Player 3 then joins and inputs "Player3" as their nick and then hits submit. Player 1 hits start game which starts the game for players 2 and 3 aswell. Player 1 finds a valid word and highlights it. The game highlights the player's word in the grid in the player's respective color and then marks the word as found in the word bank by highlighting it in green. Player 1 then boasts about their find by messaging everyone saying "Found 1".  Player 2 then finds a word, boasts about it. Player 3 then finds a word and boasts about it. All of them exit chat and then player 1 find another word. The game then ends because the timer runs out. </t>
+  </si>
+  <si>
+    <t>Player 1 tries to locate the word bank</t>
+  </si>
+  <si>
+    <t>Player 1 locates the word bank that lists all the valid words in the grid.</t>
+  </si>
+  <si>
+    <t>SREQ038</t>
+  </si>
+  <si>
+    <t>Player 2 tries to locate the word bank</t>
+  </si>
+  <si>
+    <t>Player 2 locates the word bank that lists all the valid words in the grid.</t>
+  </si>
+  <si>
+    <t>Player 3 tries to locate the word bank</t>
+  </si>
+  <si>
+    <t>Player 3 locates the word bank that lists all the valid words in the grid.</t>
   </si>
 </sst>
 </file>
@@ -267,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -299,32 +320,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,247 +788,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6B3E84-021E-9E47-B26F-F97D8577B605}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -915,12 +1043,12 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -931,10 +1059,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -943,86 +1071,86 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="1" t="s">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1037,12 +1165,12 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1053,10 +1181,10 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1065,42 +1193,42 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="1" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1109,42 +1237,42 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1159,12 +1287,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1175,10 +1303,10 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1187,42 +1315,42 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="1" t="s">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1231,697 +1359,924 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="1" t="s">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
     </row>
     <row r="33" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="E33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="1" t="s">
+      <c r="E35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="E37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
     </row>
     <row r="39" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="A39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="16"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="E41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="E43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="1" t="s">
+      <c r="E45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="A47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="16"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="19"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="E49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="E51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="E53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="E55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="E57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="E59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="16"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="19"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="A1:P8"/>
-    <mergeCell ref="I55:L56"/>
-    <mergeCell ref="I59:L60"/>
-    <mergeCell ref="I57:L58"/>
-    <mergeCell ref="I33:L34"/>
-    <mergeCell ref="I39:L40"/>
-    <mergeCell ref="I45:L46"/>
-    <mergeCell ref="I35:L36"/>
-    <mergeCell ref="I41:L42"/>
+  <mergeCells count="115">
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="E63:H64"/>
+    <mergeCell ref="I63:L64"/>
+    <mergeCell ref="M63:P64"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="E47:H48"/>
     <mergeCell ref="I47:L48"/>
-    <mergeCell ref="I49:L50"/>
-    <mergeCell ref="I51:L52"/>
-    <mergeCell ref="I53:L54"/>
-    <mergeCell ref="I43:L44"/>
-    <mergeCell ref="I25:L26"/>
-    <mergeCell ref="I27:L28"/>
-    <mergeCell ref="I29:L30"/>
-    <mergeCell ref="I31:L32"/>
-    <mergeCell ref="I37:L38"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="E59:H60"/>
+    <mergeCell ref="M47:P48"/>
+    <mergeCell ref="M67:P68"/>
+    <mergeCell ref="M49:P50"/>
+    <mergeCell ref="M51:P52"/>
+    <mergeCell ref="M53:P54"/>
+    <mergeCell ref="M55:P56"/>
+    <mergeCell ref="M65:P66"/>
+    <mergeCell ref="M35:P36"/>
+    <mergeCell ref="M37:P38"/>
+    <mergeCell ref="M41:P42"/>
+    <mergeCell ref="M43:P44"/>
+    <mergeCell ref="M45:P46"/>
+    <mergeCell ref="M39:P40"/>
+    <mergeCell ref="M23:P24"/>
+    <mergeCell ref="M27:P28"/>
+    <mergeCell ref="M29:P30"/>
+    <mergeCell ref="M33:P34"/>
+    <mergeCell ref="M9:P10"/>
+    <mergeCell ref="M11:P12"/>
+    <mergeCell ref="M15:P16"/>
+    <mergeCell ref="M17:P18"/>
+    <mergeCell ref="M21:P22"/>
+    <mergeCell ref="M31:P32"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A65:D66"/>
+    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E15:H16"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E23:H24"/>
+    <mergeCell ref="E25:H26"/>
+    <mergeCell ref="E27:H28"/>
+    <mergeCell ref="E29:H30"/>
+    <mergeCell ref="E33:H34"/>
+    <mergeCell ref="E31:H32"/>
+    <mergeCell ref="E67:H68"/>
     <mergeCell ref="I11:L12"/>
     <mergeCell ref="I13:L14"/>
     <mergeCell ref="I15:L16"/>
@@ -1929,77 +2284,43 @@
     <mergeCell ref="I19:L20"/>
     <mergeCell ref="I21:L22"/>
     <mergeCell ref="I23:L24"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="E35:H36"/>
     <mergeCell ref="E43:H44"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I29:L30"/>
+    <mergeCell ref="I33:L34"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="E59:H60"/>
+    <mergeCell ref="E61:H62"/>
+    <mergeCell ref="E55:H56"/>
     <mergeCell ref="E57:H58"/>
-    <mergeCell ref="E33:H34"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I31:L32"/>
     <mergeCell ref="E39:H40"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="E23:H24"/>
-    <mergeCell ref="E25:H26"/>
-    <mergeCell ref="E27:H28"/>
-    <mergeCell ref="E29:H30"/>
-    <mergeCell ref="E31:H32"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E15:H16"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="M23:P24"/>
-    <mergeCell ref="M27:P28"/>
-    <mergeCell ref="M29:P30"/>
-    <mergeCell ref="M31:P32"/>
-    <mergeCell ref="M9:P10"/>
-    <mergeCell ref="M11:P12"/>
-    <mergeCell ref="M15:P16"/>
-    <mergeCell ref="M17:P18"/>
-    <mergeCell ref="M21:P22"/>
-    <mergeCell ref="M33:P34"/>
-    <mergeCell ref="M35:P36"/>
-    <mergeCell ref="M37:P38"/>
-    <mergeCell ref="M39:P40"/>
-    <mergeCell ref="M41:P42"/>
-    <mergeCell ref="M59:P60"/>
-    <mergeCell ref="M43:P44"/>
-    <mergeCell ref="M45:P46"/>
-    <mergeCell ref="M47:P48"/>
-    <mergeCell ref="M49:P50"/>
-    <mergeCell ref="M57:P58"/>
+    <mergeCell ref="I39:L40"/>
+    <mergeCell ref="A1:P8"/>
+    <mergeCell ref="I61:L62"/>
+    <mergeCell ref="I67:L68"/>
+    <mergeCell ref="I65:L66"/>
+    <mergeCell ref="I35:L36"/>
+    <mergeCell ref="I43:L44"/>
+    <mergeCell ref="I51:L52"/>
+    <mergeCell ref="I37:L38"/>
+    <mergeCell ref="I45:L46"/>
+    <mergeCell ref="I53:L54"/>
+    <mergeCell ref="I55:L56"/>
+    <mergeCell ref="I57:L58"/>
+    <mergeCell ref="I59:L60"/>
+    <mergeCell ref="I49:L50"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="I27:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>